--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chzam\OneDrive\Desktop\cerebro-patio\Cerebro\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C8BCF5-CCCE-4BF1-9BEC-C351D312BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_2BB1D69C5BD0D014EBDA3911596278736601FA8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A0253D-A59C-464D-94E5-B84015384E46}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>fecha</t>
   </si>
@@ -106,6 +106,9 @@
     <t>urgente</t>
   </si>
   <si>
+    <t>Instalacion</t>
+  </si>
+  <si>
     <t>Antena GPS, Corta Corriente Remoto</t>
   </si>
   <si>
@@ -115,43 +118,10 @@
     <t>PRSV10</t>
   </si>
   <si>
-    <t>VE041-LCSH40</t>
-  </si>
-  <si>
-    <t>VCVF53</t>
-  </si>
-  <si>
-    <t>HPWV83</t>
-  </si>
-  <si>
-    <t>MDVR 4ch sin IA</t>
-  </si>
-  <si>
-    <t>EL VENTISQUERO 1250, RENCA</t>
-  </si>
-  <si>
-    <t>RENCA</t>
-  </si>
-  <si>
-    <t>HHRF98</t>
-  </si>
-  <si>
-    <t>SOPROLE</t>
-  </si>
-  <si>
-    <t>AV. PRIETO NORTE 0331, TEMUCO</t>
-  </si>
-  <si>
-    <t>TEMUCO</t>
-  </si>
-  <si>
-    <t>Región de La Araucanía.</t>
-  </si>
-  <si>
-    <t>SWZK97-MOV23032</t>
-  </si>
-  <si>
-    <t>BRINKS</t>
+    <t>Juan Perez</t>
+  </si>
+  <si>
+    <t>Pedro Pascal</t>
   </si>
 </sst>
 </file>
@@ -207,11 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,11 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -556,6 +532,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>46017</v>
+      </c>
       <c r="B2">
         <v>42944</v>
       </c>
@@ -574,6 +553,9 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
@@ -582,6 +564,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>46017</v>
+      </c>
       <c r="B3">
         <v>42965</v>
       </c>
@@ -600,6 +585,9 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
@@ -608,6 +596,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>46017</v>
+      </c>
       <c r="B4">
         <v>43007</v>
       </c>
@@ -629,6 +620,9 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
@@ -637,6 +631,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>46017</v>
+      </c>
       <c r="B5">
         <v>42730</v>
       </c>
@@ -644,13 +641,13 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -658,147 +655,14 @@
       <c r="H5" t="s">
         <v>15</v>
       </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>42562</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>42377</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>41965</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>42793</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>43003</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2BB1D69C5BD0D014EBDA3911596278736601FA8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A0253D-A59C-464D-94E5-B84015384E46}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A9A613-D306-4E6F-BF97-B98D77D47446}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>fecha</t>
   </si>
@@ -55,73 +55,40 @@
     <t>cliente</t>
   </si>
   <si>
-    <t>inmediata</t>
-  </si>
-  <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <t>Bernardo Ohiggins 0128, Talagante</t>
-  </si>
-  <si>
-    <t>TALAGANTE</t>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Instalación</t>
+  </si>
+  <si>
+    <t>Antena GPS</t>
+  </si>
+  <si>
+    <t>AMERICO VESPUCIO 2341 PUDAHUEL</t>
+  </si>
+  <si>
+    <t>PUDAHUEL</t>
   </si>
   <si>
     <t>Región Metropolitana de Santiago.</t>
   </si>
   <si>
-    <t>MONTINA_CAMARA4</t>
-  </si>
-  <si>
-    <t>ARIZSANTIAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISTA ALEGRE NRO. 2350, CERRILLOS </t>
-  </si>
-  <si>
-    <t>CERRILLOS</t>
-  </si>
-  <si>
-    <t>CDPO-3905-LCHD38</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>Antena GPS</t>
-  </si>
-  <si>
-    <t>AMERICO VESPUCIO 2341 PUDAHUEL</t>
-  </si>
-  <si>
-    <t>PUDAHUEL</t>
-  </si>
-  <si>
-    <t>VE103-HCDX49</t>
-  </si>
-  <si>
-    <t>CIAL_ALIMENTOS</t>
-  </si>
-  <si>
-    <t>urgente</t>
-  </si>
-  <si>
-    <t>Instalacion</t>
-  </si>
-  <si>
-    <t>Antena GPS, Corta Corriente Remoto</t>
-  </si>
-  <si>
-    <t>AMERICO VESPUCIO NORTE 2341, PUDAHUEL</t>
-  </si>
-  <si>
-    <t>PRSV10</t>
-  </si>
-  <si>
     <t>Juan Perez</t>
   </si>
   <si>
     <t>Pedro Pascal</t>
+  </si>
+  <si>
+    <t>HCCR34</t>
+  </si>
+  <si>
+    <t>BSBJ92</t>
+  </si>
+  <si>
+    <t>YALA</t>
+  </si>
+  <si>
+    <t>VALU</t>
   </si>
 </sst>
 </file>
@@ -485,15 +452,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -533,10 +510,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46017</v>
+        <v>46018</v>
       </c>
       <c r="B2">
-        <v>42944</v>
+        <v>413345</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -544,31 +521,34 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46017</v>
+        <v>46018</v>
       </c>
       <c r="B3">
-        <v>42965</v>
+        <v>413235</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -576,94 +556,39 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>46017</v>
-      </c>
-      <c r="B4">
-        <v>43007</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>46017</v>
-      </c>
-      <c r="B5">
-        <v>42730</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A9A613-D306-4E6F-BF97-B98D77D47446}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17D7E8E1-1493-49D5-99AD-CC2BFD578EF6}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,16 +79,16 @@
     <t>Pedro Pascal</t>
   </si>
   <si>
-    <t>HCCR34</t>
-  </si>
-  <si>
-    <t>BSBJ92</t>
-  </si>
-  <si>
-    <t>YALA</t>
-  </si>
-  <si>
-    <t>VALU</t>
+    <t>BRINKS</t>
+  </si>
+  <si>
+    <t>SOPROLE</t>
+  </si>
+  <si>
+    <t>BSBJ90</t>
+  </si>
+  <si>
+    <t>HCCR30</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46018</v>
+        <v>46019</v>
       </c>
       <c r="B2">
-        <v>413345</v>
+        <v>4133457</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -537,18 +537,18 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46018</v>
+        <v>46019</v>
       </c>
       <c r="B3">
-        <v>413235</v>
+        <v>4132357</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -572,10 +572,10 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17D7E8E1-1493-49D5-99AD-CC2BFD578EF6}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{851FF36F-2930-4C47-93CF-F250B753321E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Pedro Pascal</t>
   </si>
   <si>
-    <t>BRINKS</t>
-  </si>
-  <si>
-    <t>SOPROLE</t>
-  </si>
-  <si>
-    <t>BSBJ90</t>
-  </si>
-  <si>
-    <t>HCCR30</t>
+    <t>ECOTRANS</t>
+  </si>
+  <si>
+    <t>AGRETRANS</t>
+  </si>
+  <si>
+    <t>BSBJ91</t>
+  </si>
+  <si>
+    <t>HCCR31</t>
   </si>
 </sst>
 </file>
@@ -454,14 +454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46019</v>
+        <v>46020</v>
       </c>
       <c r="B2">
-        <v>4133457</v>
+        <v>413345733</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46019</v>
+        <v>46020</v>
       </c>
       <c r="B3">
-        <v>4132357</v>
+        <v>413235733</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{851FF36F-2930-4C47-93CF-F250B753321E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAFDE392-26F7-40A1-AC36-24EA0A184C70}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Pedro Pascal</t>
   </si>
   <si>
-    <t>ECOTRANS</t>
-  </si>
-  <si>
-    <t>AGRETRANS</t>
-  </si>
-  <si>
     <t>BSBJ91</t>
   </si>
   <si>
     <t>HCCR31</t>
+  </si>
+  <si>
+    <t>HOLA</t>
+  </si>
+  <si>
+    <t>CHAO</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="B2">
-        <v>413345733</v>
+        <v>413345734</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -537,18 +537,18 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="B3">
-        <v>413235733</v>
+        <v>413235734</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -572,10 +572,10 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAFDE392-26F7-40A1-AC36-24EA0A184C70}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E1FBB6-9306-4208-A902-413ED423E22E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,10 @@
     <t>HCCR31</t>
   </si>
   <si>
-    <t>HOLA</t>
-  </si>
-  <si>
-    <t>CHAO</t>
+    <t>NANO</t>
+  </si>
+  <si>
+    <t>CHRIS</t>
   </si>
 </sst>
 </file>
@@ -454,14 +454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B2">
-        <v>413345734</v>
+        <v>4133457345</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B3">
-        <v>413235734</v>
+        <v>4132357345</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_2BB1D69C5BC0D3126FBB2C115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E1FBB6-9306-4208-A902-413ED423E22E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_2BB1D69C5BB0582E3B7825115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF9FAF09-429A-42F4-9A51-A42CB476D185}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>fecha</t>
   </si>
@@ -73,22 +73,73 @@
     <t>Región Metropolitana de Santiago.</t>
   </si>
   <si>
+    <t>HCCR38</t>
+  </si>
+  <si>
+    <t>CIAL_ALIMENTOS</t>
+  </si>
+  <si>
+    <t>BSBJ91</t>
+  </si>
+  <si>
+    <t>inmediata</t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>Botón Alámbrico Tablero</t>
+  </si>
+  <si>
+    <t>RODRIGO DE ARAYA 2821, MACUL</t>
+  </si>
+  <si>
+    <t>MACUL</t>
+  </si>
+  <si>
+    <t>VDVP13</t>
+  </si>
+  <si>
+    <t>COMERCIAL_DIBOR</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>MDVR 4ch sin IA</t>
+  </si>
+  <si>
+    <t>EL VENTISQUERO 1250, RENCA</t>
+  </si>
+  <si>
+    <t>RENCA</t>
+  </si>
+  <si>
+    <t>KHSJ34</t>
+  </si>
+  <si>
+    <t>SOPROLE</t>
+  </si>
+  <si>
+    <t>AV. LO ESPEJO 1300, MAIPU</t>
+  </si>
+  <si>
+    <t>MAIPU</t>
+  </si>
+  <si>
+    <t>GENERADOR_SANTIAGO_19</t>
+  </si>
+  <si>
+    <t>LUREYE</t>
+  </si>
+  <si>
+    <t>GENERADOR_SANTIAGO_18</t>
+  </si>
+  <si>
     <t>Juan Perez</t>
   </si>
   <si>
     <t>Pedro Pascal</t>
-  </si>
-  <si>
-    <t>BSBJ91</t>
-  </si>
-  <si>
-    <t>HCCR31</t>
-  </si>
-  <si>
-    <t>NANO</t>
-  </si>
-  <si>
-    <t>CHRIS</t>
   </si>
 </sst>
 </file>
@@ -454,23 +505,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -510,10 +561,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46022</v>
+        <v>46011</v>
       </c>
       <c r="B2">
-        <v>4133457345</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -534,21 +585,21 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46022</v>
+        <v>46011</v>
       </c>
       <c r="B3">
-        <v>4132357345</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -569,26 +620,154 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>46011</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>46011</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>46011</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>46011</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_2BB1D69C5BB0582E3B7825115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF9FAF09-429A-42F4-9A51-A42CB476D185}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_2BB1D69C5BB0582E3B7825115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C00128-A731-40B4-A797-9D65FC850080}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -736,10 +736,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_2BB1D69C5BB0582E3B7825115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C00128-A731-40B4-A797-9D65FC850080}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_2BB1D69C5BB0582E3B7825115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C34CC87F-0815-49CD-95DA-73859E9B4B3B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,6 +216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,7 +510,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -564,7 +568,7 @@
         <v>46020</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -599,7 +603,7 @@
         <v>46020</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -634,7 +638,7 @@
         <v>46020</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -669,7 +673,7 @@
         <v>46020</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -704,7 +708,7 @@
         <v>46020</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -739,7 +743,7 @@
         <v>46020</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_2BB1D69C5BB0582E3B7825115931B0B165A5FE2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C34CC87F-0815-49CD-95DA-73859E9B4B3B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786DB716-75FB-49EE-BA91-7A4046E7FF40}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>fecha</t>
   </si>
@@ -55,91 +55,58 @@
     <t>cliente</t>
   </si>
   <si>
+    <t>urgente</t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>Antena GPS, Corta Corriente Remoto</t>
+  </si>
+  <si>
+    <t>AMERICO VESPUCIO NORTE 2341, PUDAHUEL</t>
+  </si>
+  <si>
+    <t>PUDAHUEL</t>
+  </si>
+  <si>
+    <t>Región Metropolitana de Santiago.</t>
+  </si>
+  <si>
+    <t>PRSV10</t>
+  </si>
+  <si>
+    <t>CIAL_ALIMENTOS</t>
+  </si>
+  <si>
+    <t>Antena GPS</t>
+  </si>
+  <si>
+    <t>VE041-LCSH40</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>Instalación</t>
-  </si>
-  <si>
-    <t>Antena GPS</t>
-  </si>
-  <si>
-    <t>AMERICO VESPUCIO 2341 PUDAHUEL</t>
-  </si>
-  <si>
-    <t>PUDAHUEL</t>
-  </si>
-  <si>
-    <t>Región Metropolitana de Santiago.</t>
-  </si>
-  <si>
-    <t>HCCR38</t>
-  </si>
-  <si>
-    <t>CIAL_ALIMENTOS</t>
-  </si>
-  <si>
-    <t>BSBJ91</t>
-  </si>
-  <si>
-    <t>inmediata</t>
-  </si>
-  <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <t>Botón Alámbrico Tablero</t>
-  </si>
-  <si>
-    <t>RODRIGO DE ARAYA 2821, MACUL</t>
-  </si>
-  <si>
-    <t>MACUL</t>
-  </si>
-  <si>
-    <t>VDVP13</t>
-  </si>
-  <si>
-    <t>COMERCIAL_DIBOR</t>
-  </si>
-  <si>
-    <t>alta</t>
-  </si>
-  <si>
-    <t>MDVR 4ch sin IA</t>
-  </si>
-  <si>
-    <t>EL VENTISQUERO 1250, RENCA</t>
-  </si>
-  <si>
-    <t>RENCA</t>
-  </si>
-  <si>
-    <t>KHSJ34</t>
+    <t>VCVF53</t>
+  </si>
+  <si>
+    <t>HPWV83</t>
+  </si>
+  <si>
+    <t>Juan Parez</t>
+  </si>
+  <si>
+    <t>Pedro Pascal</t>
   </si>
   <si>
     <t>SOPROLE</t>
   </si>
   <si>
-    <t>AV. LO ESPEJO 1300, MAIPU</t>
-  </si>
-  <si>
-    <t>MAIPU</t>
-  </si>
-  <si>
-    <t>GENERADOR_SANTIAGO_19</t>
-  </si>
-  <si>
-    <t>LUREYE</t>
-  </si>
-  <si>
-    <t>GENERADOR_SANTIAGO_18</t>
-  </si>
-  <si>
-    <t>Juan Perez</t>
-  </si>
-  <si>
-    <t>Pedro Pascal</t>
+    <t>AGUNSA</t>
+  </si>
+  <si>
+    <t>BRINKS</t>
   </si>
 </sst>
 </file>
@@ -200,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,10 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,25 +470,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.06640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -568,7 +531,7 @@
         <v>46020</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -589,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -603,7 +566,7 @@
         <v>46020</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -612,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -624,13 +587,13 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -638,34 +601,31 @@
         <v>46020</v>
       </c>
       <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -673,104 +633,31 @@
         <v>46020</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>46020</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>46020</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786DB716-75FB-49EE-BA91-7A4046E7FF40}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8548F3-A11A-4D31-B285-571A22BCE96E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>fecha</t>
   </si>
@@ -76,37 +76,10 @@
     <t>PRSV10</t>
   </si>
   <si>
-    <t>CIAL_ALIMENTOS</t>
-  </si>
-  <si>
-    <t>Antena GPS</t>
-  </si>
-  <si>
-    <t>VE041-LCSH40</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>VCVF53</t>
-  </si>
-  <si>
-    <t>HPWV83</t>
-  </si>
-  <si>
-    <t>Juan Parez</t>
-  </si>
-  <si>
-    <t>Pedro Pascal</t>
-  </si>
-  <si>
-    <t>SOPROLE</t>
-  </si>
-  <si>
-    <t>AGUNSA</t>
-  </si>
-  <si>
-    <t>BRINKS</t>
+    <t>Juan Perez</t>
+  </si>
+  <si>
+    <t>HOLA prueba</t>
   </si>
 </sst>
 </file>
@@ -183,6 +156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -552,112 +529,13 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>46020</v>
-      </c>
-      <c r="B3">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>46020</v>
-      </c>
-      <c r="B4">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>46020</v>
-      </c>
-      <c r="B5">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8548F3-A11A-4D31-B285-571A22BCE96E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{404E1F99-7BE1-4BD0-AD22-E95B36025010}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>Juan Perez</t>
   </si>
   <si>
-    <t>HOLA prueba</t>
+    <t>HOLA prueba2</t>
   </si>
 </sst>
 </file>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -508,7 +508,7 @@
         <v>46020</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{404E1F99-7BE1-4BD0-AD22-E95B36025010}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D10579CD-34A4-425D-8BF9-04F33AA07FDF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,10 +156,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,12 +446,12 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
@@ -508,7 +504,7 @@
         <v>46020</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_2BB1D69C5B505F711B583E11592FA0B55413FAA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D10579CD-34A4-425D-8BF9-04F33AA07FDF}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BC0DF056F9B2A1159A7A07546DFFE5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B9AAE2B-DAE8-41BD-BD7D-979365A62212}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>fecha</t>
   </si>
@@ -55,31 +55,52 @@
     <t>cliente</t>
   </si>
   <si>
-    <t>urgente</t>
-  </si>
-  <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <t>Antena GPS, Corta Corriente Remoto</t>
-  </si>
-  <si>
-    <t>AMERICO VESPUCIO NORTE 2341, PUDAHUEL</t>
-  </si>
-  <si>
-    <t>PUDAHUEL</t>
-  </si>
-  <si>
-    <t>Región Metropolitana de Santiago.</t>
-  </si>
-  <si>
-    <t>PRSV10</t>
-  </si>
-  <si>
-    <t>Juan Perez</t>
-  </si>
-  <si>
-    <t>HOLA prueba2</t>
+    <t>Accesorio 1</t>
+  </si>
+  <si>
+    <t>Accesorio 2</t>
+  </si>
+  <si>
+    <t>Accesorio 3</t>
+  </si>
+  <si>
+    <t>Accesorio 4</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Instalación</t>
+  </si>
+  <si>
+    <t>MDVR 4ch con IA, V4, DMS, ADAS</t>
+  </si>
+  <si>
+    <t>CALLE N°8 SITIO N°6 MZA K SECTOR PUERTO SECO. CALAMA</t>
+  </si>
+  <si>
+    <t>Región de Antofagasta.</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>AGRETRANS LOA</t>
+  </si>
+  <si>
+    <t>MDVR 4ch con IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADAS</t>
+  </si>
+  <si>
+    <t>MDVR 4ch con IA, DMS, ADAS</t>
   </si>
 </sst>
 </file>
@@ -135,12 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,28 +463,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.06640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,40 +520,163 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>46020</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2">
-        <v>102</v>
+        <v>42329</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>42328</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H3" t="s">
         <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>42327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>42326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BC0DF056F9B2A1159A7A07546DFFE5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B9AAE2B-DAE8-41BD-BD7D-979365A62212}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_2BB1D69C5B70DD21E7DA2E11592610315AE3E347" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35C36A6-2A89-422F-8DB3-54FD2EEE475D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>fecha</t>
   </si>
@@ -70,9 +70,51 @@
     <t>normal</t>
   </si>
   <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>AV. PRIETO NORTE 0331, TEMUCO</t>
+  </si>
+  <si>
+    <t>TEMUCO</t>
+  </si>
+  <si>
+    <t>Región de La Araucanía.</t>
+  </si>
+  <si>
+    <t>SWZK97-MOV23032</t>
+  </si>
+  <si>
+    <t>BRINKS</t>
+  </si>
+  <si>
+    <t>SVFG59-CB909</t>
+  </si>
+  <si>
+    <t>RLVL73-MOV19039</t>
+  </si>
+  <si>
     <t>Instalación</t>
   </si>
   <si>
+    <t>Antena GPS</t>
+  </si>
+  <si>
+    <t>AV. LO ESPEJO 1300, MAIPU</t>
+  </si>
+  <si>
+    <t>MAIPU</t>
+  </si>
+  <si>
+    <t>Región Metropolitana de Santiago.</t>
+  </si>
+  <si>
+    <t>GENERADOR_SANTIAGO_16</t>
+  </si>
+  <si>
+    <t>LUREYE</t>
+  </si>
+  <si>
     <t>MDVR 4ch con IA, V4, DMS, ADAS</t>
   </si>
   <si>
@@ -100,7 +142,13 @@
     <t xml:space="preserve"> ADAS</t>
   </si>
   <si>
-    <t>MDVR 4ch con IA, DMS, ADAS</t>
+    <t>GPS, Boton tablero, sensor pta</t>
+  </si>
+  <si>
+    <t>Juan Perez</t>
+  </si>
+  <si>
+    <t>Pedro Pascal</t>
   </si>
 </sst>
 </file>
@@ -156,11 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,24 +512,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="10.06640625" bestFit="1" customWidth="1"/>
@@ -534,8 +581,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>46021</v>
+      </c>
       <c r="B2">
-        <v>42329</v>
+        <v>43003</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -543,37 +593,31 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>46021</v>
+      </c>
       <c r="B3">
-        <v>42328</v>
+        <v>43001</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -581,37 +625,31 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>46021</v>
+      </c>
       <c r="B4">
-        <v>42327</v>
+        <v>42999</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -619,64 +657,149 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>46021</v>
+      </c>
       <c r="B5">
-        <v>42326</v>
+        <v>42914</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="G5" t="s">
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B6">
+        <v>42347</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
-        <v>25</v>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B7">
+        <v>42346</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_2BB1D69C5B70DD21E7DA2E11592610315AE3E347" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35C36A6-2A89-422F-8DB3-54FD2EEE475D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_2BB1D69C5B60DD33A738361159DC1037422FF8AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9566F24B-FDC1-4DF3-9DA3-16CE563BDBFB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>fecha</t>
   </si>
@@ -58,97 +58,52 @@
     <t>Accesorio 1</t>
   </si>
   <si>
-    <t>Accesorio 2</t>
-  </si>
-  <si>
-    <t>Accesorio 3</t>
-  </si>
-  <si>
-    <t>Accesorio 4</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <t>AV. PRIETO NORTE 0331, TEMUCO</t>
-  </si>
-  <si>
-    <t>TEMUCO</t>
+    <t>Instalación</t>
+  </si>
+  <si>
+    <t>FRANCISCO MARTINIC (-22.437049653078066, -68.89590402553648)</t>
+  </si>
+  <si>
+    <t>CALAMA</t>
+  </si>
+  <si>
+    <t>Región de Antofagasta.</t>
+  </si>
+  <si>
+    <t>PJJR85</t>
+  </si>
+  <si>
+    <t>TRANSPORTES_FCA</t>
+  </si>
+  <si>
+    <t>urgente</t>
+  </si>
+  <si>
+    <t>CALLE RUCAPELLAN 971, ANGOL</t>
+  </si>
+  <si>
+    <t>ANGOL</t>
   </si>
   <si>
     <t>Región de La Araucanía.</t>
   </si>
   <si>
-    <t>SWZK97-MOV23032</t>
-  </si>
-  <si>
-    <t>BRINKS</t>
-  </si>
-  <si>
-    <t>SVFG59-CB909</t>
-  </si>
-  <si>
-    <t>RLVL73-MOV19039</t>
-  </si>
-  <si>
-    <t>Instalación</t>
-  </si>
-  <si>
-    <t>Antena GPS</t>
-  </si>
-  <si>
-    <t>AV. LO ESPEJO 1300, MAIPU</t>
-  </si>
-  <si>
-    <t>MAIPU</t>
-  </si>
-  <si>
-    <t>Región Metropolitana de Santiago.</t>
-  </si>
-  <si>
-    <t>GENERADOR_SANTIAGO_16</t>
-  </si>
-  <si>
-    <t>LUREYE</t>
-  </si>
-  <si>
-    <t>MDVR 4ch con IA, V4, DMS, ADAS</t>
-  </si>
-  <si>
-    <t>CALLE N°8 SITIO N°6 MZA K SECTOR PUERTO SECO. CALAMA</t>
-  </si>
-  <si>
-    <t>Región de Antofagasta.</t>
-  </si>
-  <si>
-    <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>AGRETRANS LOA</t>
-  </si>
-  <si>
-    <t>MDVR 4ch con IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> V4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADAS</t>
-  </si>
-  <si>
-    <t>GPS, Boton tablero, sensor pta</t>
+    <t>RZWJ15</t>
+  </si>
+  <si>
+    <t>TRANSURSA</t>
   </si>
   <si>
     <t>Juan Perez</t>
   </si>
   <si>
     <t>Pedro Pascal</t>
+  </si>
+  <si>
+    <t>MDVR</t>
   </si>
 </sst>
 </file>
@@ -512,9 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -522,18 +479,17 @@
     <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,236 +526,81 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B2">
+        <v>4042512</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B2">
-        <v>43003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B3">
+        <v>4301912</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B3">
-        <v>43001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B4">
-        <v>42999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B5">
-        <v>42914</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="L3" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B6">
-        <v>42347</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B7">
-        <v>42346</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_2BB1D69C5B60DD33A738361159DC1037422FF8AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9566F24B-FDC1-4DF3-9DA3-16CE563BDBFB}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_2BB1D69C5B60DD33A738361159DC1037422FF8AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7DC490-F71C-4C4A-8195-FAF28BDF59EF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>fecha</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>MDVR</t>
+  </si>
+  <si>
+    <t>Soporte</t>
   </si>
 </sst>
 </file>
@@ -470,13 +473,13 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
@@ -532,7 +535,7 @@
         <v>46022</v>
       </c>
       <c r="B2">
-        <v>4042512</v>
+        <v>40425123</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -570,13 +573,13 @@
         <v>46022</v>
       </c>
       <c r="B3">
-        <v>4301912</v>
+        <v>43019123</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -10,12 +10,25 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="26" documentId="11_2BB1D69C5B60DD33A738361159DC1037422FF8AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7DC490-F71C-4C4A-8195-FAF28BDF59EF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_2BB1D69C5B60DD33A738361159DC1037422FF8AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7DC490-F71C-4C4A-8195-FAF28BDF59EF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_2BB1D69C5B20583D5B582511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B13EEBC-16F0-4BFE-9533-6DB89B2154BC}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>fecha</t>
   </si>
@@ -71,55 +58,115 @@
     <t>Accesorio 1</t>
   </si>
   <si>
+    <t>Accesorio 2</t>
+  </si>
+  <si>
+    <t>Accesorio 3</t>
+  </si>
+  <si>
+    <t>Accesorio 4</t>
+  </si>
+  <si>
+    <t>Accesorio 5</t>
+  </si>
+  <si>
+    <t>Accesorio 6</t>
+  </si>
+  <si>
+    <t>Accesorio 7</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
     <t>Instalación</t>
   </si>
   <si>
-    <t>FRANCISCO MARTINIC (-22.437049653078066, -68.89590402553648)</t>
-  </si>
-  <si>
-    <t>CALAMA</t>
-  </si>
-  <si>
-    <t>Región de Antofagasta.</t>
-  </si>
-  <si>
-    <t>PJJR85</t>
-  </si>
-  <si>
-    <t>TRANSPORTES_FCA</t>
-  </si>
-  <si>
-    <t>urgente</t>
-  </si>
-  <si>
-    <t>CALLE RUCAPELLAN 971, ANGOL</t>
-  </si>
-  <si>
-    <t>ANGOL</t>
+    <t>GPS, Corta Corriente, Sensor Pta, Sensor Temperatura</t>
+  </si>
+  <si>
+    <t>PANAMERICANA SUR KM. 678 PADRE LAS CASAS</t>
+  </si>
+  <si>
+    <t>TEMUCO</t>
   </si>
   <si>
     <t>Región de La Araucanía.</t>
   </si>
   <si>
-    <t>RZWJ15</t>
-  </si>
-  <si>
-    <t>TRANSURSA</t>
+    <t>TRPT29</t>
+  </si>
+  <si>
+    <t>DIWATTS</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corta Corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sensor Pta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sensor Temperatura</t>
+  </si>
+  <si>
+    <t>GPS, Botón Alámbrico Tablero, Corta Corriente, Sensor Pta, Sensor Pta Adicional, Sensor Temperatura, Sensor Temperatura Adicional</t>
+  </si>
+  <si>
+    <t>RUTA 5 SUR KM 8 SN</t>
+  </si>
+  <si>
+    <t>CHILLAN</t>
+  </si>
+  <si>
+    <t>Región del Ñuble.</t>
+  </si>
+  <si>
+    <t>VE839-POR CONFIRMAR</t>
+  </si>
+  <si>
+    <t>CIAL_ALIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botón Alámbrico Tablero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sensor Pta Adicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sensor Temperatura Adicional</t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>CAMINO LONGITUDINAL SUR 5201, NOS</t>
+  </si>
+  <si>
+    <t>SAN BERNARDO</t>
+  </si>
+  <si>
+    <t>Región Metropolitana de Santiago.</t>
+  </si>
+  <si>
+    <t>HLPX63</t>
+  </si>
+  <si>
+    <t>CUENTA_CAROZZIDISTRIBUCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDO BECK DE RAMBERGA 1884, PADRE DE LAS CASAS </t>
+  </si>
+  <si>
+    <t>BWYY79</t>
   </si>
   <si>
     <t>Juan Perez</t>
   </si>
   <si>
     <t>Pedro Pascal</t>
-  </si>
-  <si>
-    <t>MDVR</t>
-  </si>
-  <si>
-    <t>Soporte</t>
   </si>
 </sst>
 </file>
@@ -483,29 +530,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,81 +595,202 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46022</v>
+        <v>46021</v>
       </c>
       <c r="B2">
-        <v>40425123</v>
+        <v>43572</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B3">
+        <v>42426</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
         <v>27</v>
       </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>46022</v>
-      </c>
-      <c r="B3">
-        <v>43019123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B4">
+        <v>43567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B5">
+        <v>43094</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2BB1D69C5B20583D5B582511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B13EEBC-16F0-4BFE-9533-6DB89B2154BC}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_2BB1D69C5B20583D5B582511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B89B3050-1AD5-4A69-8FFE-BB6839A26700}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>fecha</t>
   </si>
@@ -82,24 +82,12 @@
     <t>Instalación</t>
   </si>
   <si>
-    <t>GPS, Corta Corriente, Sensor Pta, Sensor Temperatura</t>
-  </si>
-  <si>
-    <t>PANAMERICANA SUR KM. 678 PADRE LAS CASAS</t>
-  </si>
-  <si>
     <t>TEMUCO</t>
   </si>
   <si>
     <t>Región de La Araucanía.</t>
   </si>
   <si>
-    <t>TRPT29</t>
-  </si>
-  <si>
-    <t>DIWATTS</t>
-  </si>
-  <si>
     <t>GPS</t>
   </si>
   <si>
@@ -140,18 +128,6 @@
   </si>
   <si>
     <t>Soporte</t>
-  </si>
-  <si>
-    <t>CAMINO LONGITUDINAL SUR 5201, NOS</t>
-  </si>
-  <si>
-    <t>SAN BERNARDO</t>
-  </si>
-  <si>
-    <t>Región Metropolitana de Santiago.</t>
-  </si>
-  <si>
-    <t>HLPX63</t>
   </si>
   <si>
     <t>CUENTA_CAROZZIDISTRIBUCION</t>
@@ -530,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -619,7 +595,7 @@
         <v>46021</v>
       </c>
       <c r="B2">
-        <v>43572</v>
+        <v>424267</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -628,37 +604,46 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
+      <c r="R2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -666,131 +651,37 @@
         <v>46021</v>
       </c>
       <c r="B3">
-        <v>42426</v>
+        <v>430947</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B4">
-        <v>43567</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B5">
-        <v>43094</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_2BB1D69C5B20583D5B582511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B89B3050-1AD5-4A69-8FFE-BB6839A26700}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_2BB1D69C5B20583D5B582511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585B8C88-8060-44F2-B54A-65C6B203C801}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,13 +509,13 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.86328125" bestFit="1" customWidth="1"/>
@@ -592,10 +592,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B2">
-        <v>424267</v>
+        <v>424267123</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B3">
-        <v>430947</v>
+        <v>430947123</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_2BB1D69C5B20583D5B582511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585B8C88-8060-44F2-B54A-65C6B203C801}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2BB1D69C5B20D7412FD93A11598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427E827A-8B48-40C1-91DD-19900E3F7385}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>fecha</t>
   </si>
@@ -82,12 +82,24 @@
     <t>Instalación</t>
   </si>
   <si>
+    <t>GPS, Corta Corriente, Sensor Pta, Sensor Temperatura</t>
+  </si>
+  <si>
+    <t>PANAMERICANA SUR KM. 678 PADRE LAS CASAS</t>
+  </si>
+  <si>
     <t>TEMUCO</t>
   </si>
   <si>
     <t>Región de La Araucanía.</t>
   </si>
   <si>
+    <t>TRPT29</t>
+  </si>
+  <si>
+    <t>DIWATTS</t>
+  </si>
+  <si>
     <t>GPS</t>
   </si>
   <si>
@@ -130,6 +142,18 @@
     <t>Soporte</t>
   </si>
   <si>
+    <t>CAMINO LONGITUDINAL SUR 5201, NOS</t>
+  </si>
+  <si>
+    <t>SAN BERNARDO</t>
+  </si>
+  <si>
+    <t>Región Metropolitana de Santiago.</t>
+  </si>
+  <si>
+    <t>HLPX63</t>
+  </si>
+  <si>
     <t>CUENTA_CAROZZIDISTRIBUCION</t>
   </si>
   <si>
@@ -139,7 +163,7 @@
     <t>BWYY79</t>
   </si>
   <si>
-    <t>Juan Perez</t>
+    <t>Pedro Prez</t>
   </si>
   <si>
     <t>Pedro Pascal</t>
@@ -506,32 +530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.9296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
@@ -592,10 +599,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46022</v>
+        <v>46021</v>
       </c>
       <c r="B2">
-        <v>424267123</v>
+        <v>43572</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -604,84 +611,169 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>46022</v>
+        <v>46021</v>
       </c>
       <c r="B3">
-        <v>430947123</v>
+        <v>42426</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B4">
+        <v>43567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B5">
+        <v>43094</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_2BB1D69C5B20D7412FD93A11598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427E827A-8B48-40C1-91DD-19900E3F7385}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA60B5A4-3680-499C-B02F-78FA8F96ED42}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>fecha</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Región de La Araucanía.</t>
   </si>
   <si>
-    <t>TRPT29</t>
-  </si>
-  <si>
-    <t>DIWATTS</t>
-  </si>
-  <si>
     <t>GPS</t>
   </si>
   <si>
@@ -112,61 +106,13 @@
     <t xml:space="preserve"> Sensor Temperatura</t>
   </si>
   <si>
-    <t>GPS, Botón Alámbrico Tablero, Corta Corriente, Sensor Pta, Sensor Pta Adicional, Sensor Temperatura, Sensor Temperatura Adicional</t>
-  </si>
-  <si>
-    <t>RUTA 5 SUR KM 8 SN</t>
-  </si>
-  <si>
-    <t>CHILLAN</t>
-  </si>
-  <si>
-    <t>Región del Ñuble.</t>
-  </si>
-  <si>
-    <t>VE839-POR CONFIRMAR</t>
-  </si>
-  <si>
-    <t>CIAL_ALIMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Botón Alámbrico Tablero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sensor Pta Adicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sensor Temperatura Adicional</t>
-  </si>
-  <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <t>CAMINO LONGITUDINAL SUR 5201, NOS</t>
-  </si>
-  <si>
-    <t>SAN BERNARDO</t>
-  </si>
-  <si>
-    <t>Región Metropolitana de Santiago.</t>
-  </si>
-  <si>
-    <t>HLPX63</t>
-  </si>
-  <si>
-    <t>CUENTA_CAROZZIDISTRIBUCION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUIDO BECK DE RAMBERGA 1884, PADRE DE LAS CASAS </t>
-  </si>
-  <si>
-    <t>BWYY79</t>
-  </si>
-  <si>
-    <t>Pedro Prez</t>
-  </si>
-  <si>
     <t>Pedro Pascal</t>
+  </si>
+  <si>
+    <t>YRPT30</t>
+  </si>
+  <si>
+    <t>HOLA</t>
   </si>
 </sst>
 </file>
@@ -530,15 +476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
@@ -599,10 +546,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B2">
-        <v>43572</v>
+        <v>3.35723422333344E+16</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -623,157 +570,25 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B3">
-        <v>42426</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B4">
-        <v>43567</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B5">
-        <v>43094</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA60B5A4-3680-499C-B02F-78FA8F96ED42}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F4240E9-BAD4-492C-B8D5-22E9B60663BA}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -546,10 +546,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>46022</v>
+        <v>46021</v>
       </c>
       <c r="B2">
-        <v>3.35723422333344E+16</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F4240E9-BAD4-492C-B8D5-22E9B60663BA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF8E7BC-2D05-4F55-83C3-82B5C57FECFD}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t>YRPT30</t>
   </si>
   <si>
-    <t>HOLA</t>
+    <t>Brinks</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -549,7 +549,7 @@
         <v>46021</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF8E7BC-2D05-4F55-83C3-82B5C57FECFD}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3062354B-4D5B-4D82-9C40-3A037E2AFEEF}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     <t>YRPT30</t>
   </si>
   <si>
-    <t>Brinks</t>
+    <t>Carozzi</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -549,7 +549,7 @@
         <v>46021</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>

--- a/backend/plantilla_planificacion_v2.xlsx
+++ b/backend/plantilla_planificacion_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_2BB1D69C5B30553B83783511598680375A87E202" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3062354B-4D5B-4D82-9C40-3A037E2AFEEF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_2BB1D69C5B20D7DFCBF04C72583088B35299F68C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3411E196-52E2-488F-8F70-42A4171E1A1E}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>fecha</t>
   </si>
@@ -58,61 +58,31 @@
     <t>Accesorio 1</t>
   </si>
   <si>
-    <t>Accesorio 2</t>
-  </si>
-  <si>
-    <t>Accesorio 3</t>
-  </si>
-  <si>
-    <t>Accesorio 4</t>
-  </si>
-  <si>
-    <t>Accesorio 5</t>
-  </si>
-  <si>
-    <t>Accesorio 6</t>
-  </si>
-  <si>
-    <t>Accesorio 7</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
     <t>Instalación</t>
   </si>
   <si>
-    <t>GPS, Corta Corriente, Sensor Pta, Sensor Temperatura</t>
-  </si>
-  <si>
-    <t>PANAMERICANA SUR KM. 678 PADRE LAS CASAS</t>
-  </si>
-  <si>
-    <t>TEMUCO</t>
-  </si>
-  <si>
-    <t>Región de La Araucanía.</t>
-  </si>
-  <si>
     <t>GPS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Corta Corriente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sensor Pta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sensor Temperatura</t>
-  </si>
-  <si>
-    <t>Pedro Pascal</t>
-  </si>
-  <si>
-    <t>YRPT30</t>
-  </si>
-  <si>
-    <t>Carozzi</t>
+    <t>AV. LO ESPEJO 1300, MAIPU</t>
+  </si>
+  <si>
+    <t>MAIPU</t>
+  </si>
+  <si>
+    <t>Región Metropolitana de Santiago.</t>
+  </si>
+  <si>
+    <t>GENERADOR_SANTIAGO_7</t>
+  </si>
+  <si>
+    <t>LUREYE</t>
+  </si>
+  <si>
+    <t>Juan Perez</t>
   </si>
 </sst>
 </file>
@@ -476,19 +446,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,70 +505,43 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B2">
+        <v>4358589</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
